--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1r2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H2">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I2">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J2">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.806839582923407</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N2">
-        <v>0.806839582923407</v>
+        <v>0.165139</v>
       </c>
       <c r="O2">
-        <v>0.05796206975001117</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P2">
-        <v>0.05796206975001117</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q2">
-        <v>0.1785016446294479</v>
+        <v>0.01562699347733333</v>
       </c>
       <c r="R2">
-        <v>0.1785016446294479</v>
+        <v>0.140642941296</v>
       </c>
       <c r="S2">
-        <v>5.128953106856539E-05</v>
+        <v>1.882146938835379E-06</v>
       </c>
       <c r="T2">
-        <v>5.128953106856539E-05</v>
+        <v>1.882146938835379E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H3">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I3">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J3">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.82912147931623</v>
+        <v>1.016579</v>
       </c>
       <c r="N3">
-        <v>7.82912147931623</v>
+        <v>3.049737</v>
       </c>
       <c r="O3">
-        <v>0.5624316095415417</v>
+        <v>0.04379557735662424</v>
       </c>
       <c r="P3">
-        <v>0.5624316095415417</v>
+        <v>0.04379557735662425</v>
       </c>
       <c r="Q3">
-        <v>1.732080440325086</v>
+        <v>0.2885945791519999</v>
       </c>
       <c r="R3">
-        <v>1.732080440325086</v>
+        <v>2.597351212368</v>
       </c>
       <c r="S3">
-        <v>0.0004976850142850288</v>
+        <v>3.475891920626255E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004976850142850288</v>
+        <v>3.475891920626256E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H4">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I4">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J4">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.84133868868903</v>
+        <v>8.671405</v>
       </c>
       <c r="N4">
-        <v>4.84133868868903</v>
+        <v>26.014215</v>
       </c>
       <c r="O4">
-        <v>0.3477940555921632</v>
+        <v>0.3735756773139306</v>
       </c>
       <c r="P4">
-        <v>0.3477940555921632</v>
+        <v>0.3735756773139307</v>
       </c>
       <c r="Q4">
-        <v>1.071076501983175</v>
+        <v>2.46170782264</v>
       </c>
       <c r="R4">
-        <v>1.071076501983175</v>
+        <v>22.15537040376</v>
       </c>
       <c r="S4">
-        <v>0.0003077563326618987</v>
+        <v>0.0002964931065856969</v>
       </c>
       <c r="T4">
-        <v>0.0003077563326618987</v>
+        <v>0.0002964931065856969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H5">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I5">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J5">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.442830886284326</v>
+        <v>12.91794</v>
       </c>
       <c r="N5">
-        <v>0.442830886284326</v>
+        <v>38.75382</v>
       </c>
       <c r="O5">
-        <v>0.03181226511628392</v>
+        <v>0.5565220613038737</v>
       </c>
       <c r="P5">
-        <v>0.03181226511628392</v>
+        <v>0.5565220613038738</v>
       </c>
       <c r="Q5">
-        <v>0.09796995978811816</v>
+        <v>3.66724815072</v>
       </c>
       <c r="R5">
-        <v>0.09796995978811816</v>
+        <v>33.00523335648001</v>
       </c>
       <c r="S5">
-        <v>2.815006722638245E-05</v>
+        <v>0.0004416908403295241</v>
       </c>
       <c r="T5">
-        <v>2.815006722638245E-05</v>
+        <v>0.0004416908403295242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.5232087254477</v>
+        <v>0.283888</v>
       </c>
       <c r="H6">
-        <v>76.5232087254477</v>
+        <v>0.851664</v>
       </c>
       <c r="I6">
-        <v>0.3060715690528182</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J6">
-        <v>0.3060715690528182</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.806839582923407</v>
+        <v>0.5509396666666667</v>
       </c>
       <c r="N6">
-        <v>0.806839582923407</v>
+        <v>1.652819</v>
       </c>
       <c r="O6">
-        <v>0.05796206975001117</v>
+        <v>0.02373521466637888</v>
       </c>
       <c r="P6">
-        <v>0.05796206975001117</v>
+        <v>0.02373521466637889</v>
       </c>
       <c r="Q6">
-        <v>61.74195381200104</v>
+        <v>0.1564051600906667</v>
       </c>
       <c r="R6">
-        <v>61.74195381200104</v>
+        <v>1.407646440816</v>
       </c>
       <c r="S6">
-        <v>0.01774054163393481</v>
+        <v>1.88377562011333E-05</v>
       </c>
       <c r="T6">
-        <v>0.01774054163393481</v>
+        <v>1.88377562011333E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H7">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I7">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J7">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.82912147931623</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N7">
-        <v>7.82912147931623</v>
+        <v>0.165139</v>
       </c>
       <c r="O7">
-        <v>0.5624316095415417</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P7">
-        <v>0.5624316095415417</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q7">
-        <v>599.1094970986018</v>
+        <v>0.01345258991555556</v>
       </c>
       <c r="R7">
-        <v>599.1094970986018</v>
+        <v>0.12107330924</v>
       </c>
       <c r="S7">
-        <v>0.1721443252172817</v>
+        <v>1.620257342891735E-06</v>
       </c>
       <c r="T7">
-        <v>0.1721443252172817</v>
+        <v>1.620257342891735E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H8">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I8">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J8">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.84133868868903</v>
+        <v>1.016579</v>
       </c>
       <c r="N8">
-        <v>4.84133868868903</v>
+        <v>3.049737</v>
       </c>
       <c r="O8">
-        <v>0.3477940555921632</v>
+        <v>0.04379557735662424</v>
       </c>
       <c r="P8">
-        <v>0.3477940555921632</v>
+        <v>0.04379557735662425</v>
       </c>
       <c r="Q8">
-        <v>370.4747709851359</v>
+        <v>0.2484383532133333</v>
       </c>
       <c r="R8">
-        <v>370.4747709851359</v>
+        <v>2.23594517892</v>
       </c>
       <c r="S8">
-        <v>0.1064498723023365</v>
+        <v>2.992242152452547E-05</v>
       </c>
       <c r="T8">
-        <v>0.1064498723023365</v>
+        <v>2.992242152452547E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H9">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I9">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J9">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.442830886284326</v>
+        <v>8.671405</v>
       </c>
       <c r="N9">
-        <v>0.442830886284326</v>
+        <v>26.014215</v>
       </c>
       <c r="O9">
-        <v>0.03181226511628392</v>
+        <v>0.3735756773139306</v>
       </c>
       <c r="P9">
-        <v>0.03181226511628392</v>
+        <v>0.3735756773139307</v>
       </c>
       <c r="Q9">
-        <v>33.88684034121047</v>
+        <v>2.119175763266667</v>
       </c>
       <c r="R9">
-        <v>33.88684034121047</v>
+        <v>19.0725818694</v>
       </c>
       <c r="S9">
-        <v>0.009736829899265255</v>
+        <v>0.0002552378473486839</v>
       </c>
       <c r="T9">
-        <v>0.009736829899265255</v>
+        <v>0.0002552378473486839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>173.272925664885</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H10">
-        <v>173.272925664885</v>
+        <v>0.73316</v>
       </c>
       <c r="I10">
-        <v>0.6930435500019398</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J10">
-        <v>0.6930435500019398</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.806839582923407</v>
+        <v>12.91794</v>
       </c>
       <c r="N10">
-        <v>0.806839582923407</v>
+        <v>38.75382</v>
       </c>
       <c r="O10">
-        <v>0.05796206975001117</v>
+        <v>0.5565220613038737</v>
       </c>
       <c r="P10">
-        <v>0.05796206975001117</v>
+        <v>0.5565220613038738</v>
       </c>
       <c r="Q10">
-        <v>139.8034550753743</v>
+        <v>3.1569722968</v>
       </c>
       <c r="R10">
-        <v>139.8034550753743</v>
+        <v>28.4127506712</v>
       </c>
       <c r="S10">
-        <v>0.04017023858500779</v>
+        <v>0.0003802321766518181</v>
       </c>
       <c r="T10">
-        <v>0.04017023858500779</v>
+        <v>0.0003802321766518181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>173.272925664885</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H11">
-        <v>173.272925664885</v>
+        <v>0.73316</v>
       </c>
       <c r="I11">
-        <v>0.6930435500019398</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J11">
-        <v>0.6930435500019398</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.82912147931623</v>
+        <v>0.5509396666666667</v>
       </c>
       <c r="N11">
-        <v>7.82912147931623</v>
+        <v>1.652819</v>
       </c>
       <c r="O11">
-        <v>0.5624316095415417</v>
+        <v>0.02373521466637888</v>
       </c>
       <c r="P11">
-        <v>0.5624316095415417</v>
+        <v>0.02373521466637889</v>
       </c>
       <c r="Q11">
-        <v>1356.574784106916</v>
+        <v>0.1346423086711111</v>
       </c>
       <c r="R11">
-        <v>1356.574784106916</v>
+        <v>1.21178077804</v>
       </c>
       <c r="S11">
-        <v>0.389789599309975</v>
+        <v>1.621659402818822E-05</v>
       </c>
       <c r="T11">
-        <v>0.389789599309975</v>
+        <v>1.621659402818822E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H12">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I12">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J12">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>4.84133868868903</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N12">
-        <v>4.84133868868903</v>
+        <v>0.165139</v>
       </c>
       <c r="O12">
-        <v>0.3477940555921632</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P12">
-        <v>0.3477940555921632</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q12">
-        <v>838.8729187237461</v>
+        <v>4.757406808104889</v>
       </c>
       <c r="R12">
-        <v>838.8729187237461</v>
+        <v>42.816661272944</v>
       </c>
       <c r="S12">
-        <v>0.2410364269571648</v>
+        <v>0.0005729917705319979</v>
       </c>
       <c r="T12">
-        <v>0.2410364269571648</v>
+        <v>0.0005729917705319979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>86.42549866666667</v>
+      </c>
+      <c r="H13">
+        <v>259.276496</v>
+      </c>
+      <c r="I13">
+        <v>0.2416188800040461</v>
+      </c>
+      <c r="J13">
+        <v>0.241618880004046</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.016579</v>
+      </c>
+      <c r="N13">
+        <v>3.049737</v>
+      </c>
+      <c r="O13">
+        <v>0.04379557735662424</v>
+      </c>
+      <c r="P13">
+        <v>0.04379557735662425</v>
+      </c>
+      <c r="Q13">
+        <v>87.85834700906133</v>
+      </c>
+      <c r="R13">
+        <v>790.7251230815521</v>
+      </c>
+      <c r="S13">
+        <v>0.01058183835003811</v>
+      </c>
+      <c r="T13">
+        <v>0.01058183835003811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>86.42549866666667</v>
+      </c>
+      <c r="H14">
+        <v>259.276496</v>
+      </c>
+      <c r="I14">
+        <v>0.2416188800040461</v>
+      </c>
+      <c r="J14">
+        <v>0.241618880004046</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.671405</v>
+      </c>
+      <c r="N14">
+        <v>26.014215</v>
+      </c>
+      <c r="O14">
+        <v>0.3735756773139306</v>
+      </c>
+      <c r="P14">
+        <v>0.3735756773139307</v>
+      </c>
+      <c r="Q14">
+        <v>749.4305012656267</v>
+      </c>
+      <c r="R14">
+        <v>6744.874511390641</v>
+      </c>
+      <c r="S14">
+        <v>0.09026293674934484</v>
+      </c>
+      <c r="T14">
+        <v>0.09026293674934484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>86.42549866666667</v>
+      </c>
+      <c r="H15">
+        <v>259.276496</v>
+      </c>
+      <c r="I15">
+        <v>0.2416188800040461</v>
+      </c>
+      <c r="J15">
+        <v>0.241618880004046</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.91794</v>
+      </c>
+      <c r="N15">
+        <v>38.75382</v>
+      </c>
+      <c r="O15">
+        <v>0.5565220613038737</v>
+      </c>
+      <c r="P15">
+        <v>0.5565220613038738</v>
+      </c>
+      <c r="Q15">
+        <v>1116.43940624608</v>
+      </c>
+      <c r="R15">
+        <v>10047.95465621472</v>
+      </c>
+      <c r="S15">
+        <v>0.134466237149785</v>
+      </c>
+      <c r="T15">
+        <v>0.1344662371497851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>173.272925664885</v>
-      </c>
-      <c r="H13">
-        <v>173.272925664885</v>
-      </c>
-      <c r="I13">
-        <v>0.6930435500019398</v>
-      </c>
-      <c r="J13">
-        <v>0.6930435500019398</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.442830886284326</v>
-      </c>
-      <c r="N13">
-        <v>0.442830886284326</v>
-      </c>
-      <c r="O13">
-        <v>0.03181226511628392</v>
-      </c>
-      <c r="P13">
-        <v>0.03181226511628392</v>
-      </c>
-      <c r="Q13">
-        <v>76.73060324125916</v>
-      </c>
-      <c r="R13">
-        <v>76.73060324125916</v>
-      </c>
-      <c r="S13">
-        <v>0.02204728514979228</v>
-      </c>
-      <c r="T13">
-        <v>0.02204728514979228</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>86.42549866666667</v>
+      </c>
+      <c r="H16">
+        <v>259.276496</v>
+      </c>
+      <c r="I16">
+        <v>0.2416188800040461</v>
+      </c>
+      <c r="J16">
+        <v>0.241618880004046</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5509396666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.652819</v>
+      </c>
+      <c r="O16">
+        <v>0.02373521466637888</v>
+      </c>
+      <c r="P16">
+        <v>0.02373521466637889</v>
+      </c>
+      <c r="Q16">
+        <v>47.61523542691378</v>
+      </c>
+      <c r="R16">
+        <v>428.537118842224</v>
+      </c>
+      <c r="S16">
+        <v>0.005734875984346074</v>
+      </c>
+      <c r="T16">
+        <v>0.005734875984346074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>270.67202</v>
+      </c>
+      <c r="H17">
+        <v>812.01606</v>
+      </c>
+      <c r="I17">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J17">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05504633333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.165139</v>
+      </c>
+      <c r="O17">
+        <v>0.002371469359192472</v>
+      </c>
+      <c r="P17">
+        <v>0.002371469359192472</v>
+      </c>
+      <c r="Q17">
+        <v>14.89950223692667</v>
+      </c>
+      <c r="R17">
+        <v>134.09552013234</v>
+      </c>
+      <c r="S17">
+        <v>0.001794526411371346</v>
+      </c>
+      <c r="T17">
+        <v>0.001794526411371346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>270.67202</v>
+      </c>
+      <c r="H18">
+        <v>812.01606</v>
+      </c>
+      <c r="I18">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J18">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.016579</v>
+      </c>
+      <c r="N18">
+        <v>3.049737</v>
+      </c>
+      <c r="O18">
+        <v>0.04379557735662424</v>
+      </c>
+      <c r="P18">
+        <v>0.04379557735662425</v>
+      </c>
+      <c r="Q18">
+        <v>275.15949141958</v>
+      </c>
+      <c r="R18">
+        <v>2476.43542277622</v>
+      </c>
+      <c r="S18">
+        <v>0.03314076986197332</v>
+      </c>
+      <c r="T18">
+        <v>0.03314076986197333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>270.67202</v>
+      </c>
+      <c r="H19">
+        <v>812.01606</v>
+      </c>
+      <c r="I19">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J19">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.671405</v>
+      </c>
+      <c r="N19">
+        <v>26.014215</v>
+      </c>
+      <c r="O19">
+        <v>0.3735756773139306</v>
+      </c>
+      <c r="P19">
+        <v>0.3735756773139307</v>
+      </c>
+      <c r="Q19">
+        <v>2347.1067075881</v>
+      </c>
+      <c r="R19">
+        <v>21123.9603682929</v>
+      </c>
+      <c r="S19">
+        <v>0.2826903147566149</v>
+      </c>
+      <c r="T19">
+        <v>0.2826903147566149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>270.67202</v>
+      </c>
+      <c r="H20">
+        <v>812.01606</v>
+      </c>
+      <c r="I20">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J20">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.91794</v>
+      </c>
+      <c r="N20">
+        <v>38.75382</v>
+      </c>
+      <c r="O20">
+        <v>0.5565220613038737</v>
+      </c>
+      <c r="P20">
+        <v>0.5565220613038738</v>
+      </c>
+      <c r="Q20">
+        <v>3496.524914038801</v>
+      </c>
+      <c r="R20">
+        <v>31468.7242263492</v>
+      </c>
+      <c r="S20">
+        <v>0.4211285858066906</v>
+      </c>
+      <c r="T20">
+        <v>0.4211285858066907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>270.67202</v>
+      </c>
+      <c r="H21">
+        <v>812.01606</v>
+      </c>
+      <c r="I21">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J21">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5509396666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.652819</v>
+      </c>
+      <c r="O21">
+        <v>0.02373521466637888</v>
+      </c>
+      <c r="P21">
+        <v>0.02373521466637889</v>
+      </c>
+      <c r="Q21">
+        <v>149.1239524747934</v>
+      </c>
+      <c r="R21">
+        <v>1342.11557227314</v>
+      </c>
+      <c r="S21">
+        <v>0.0179607927183547</v>
+      </c>
+      <c r="T21">
+        <v>0.0179607927183547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.203068</v>
+      </c>
+      <c r="I22">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J22">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05504633333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.165139</v>
+      </c>
+      <c r="O22">
+        <v>0.002371469359192472</v>
+      </c>
+      <c r="P22">
+        <v>0.002371469359192472</v>
+      </c>
+      <c r="Q22">
+        <v>0.003726049605777778</v>
+      </c>
+      <c r="R22">
+        <v>0.033534446452</v>
+      </c>
+      <c r="S22">
+        <v>4.487730074013024E-07</v>
+      </c>
+      <c r="T22">
+        <v>4.487730074013024E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.203068</v>
+      </c>
+      <c r="I23">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J23">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.016579</v>
+      </c>
+      <c r="N23">
+        <v>3.049737</v>
+      </c>
+      <c r="O23">
+        <v>0.04379557735662424</v>
+      </c>
+      <c r="P23">
+        <v>0.04379557735662425</v>
+      </c>
+      <c r="Q23">
+        <v>0.06881155479066667</v>
+      </c>
+      <c r="R23">
+        <v>0.6193039931159999</v>
+      </c>
+      <c r="S23">
+        <v>8.287803882020755E-06</v>
+      </c>
+      <c r="T23">
+        <v>8.287803882020757E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.203068</v>
+      </c>
+      <c r="I24">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J24">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.671405</v>
+      </c>
+      <c r="N24">
+        <v>26.014215</v>
+      </c>
+      <c r="O24">
+        <v>0.3735756773139306</v>
+      </c>
+      <c r="P24">
+        <v>0.3735756773139307</v>
+      </c>
+      <c r="Q24">
+        <v>0.5869616235133334</v>
+      </c>
+      <c r="R24">
+        <v>5.28265461162</v>
+      </c>
+      <c r="S24">
+        <v>7.069485403650301E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.069485403650301E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.203068</v>
+      </c>
+      <c r="I25">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J25">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.91794</v>
+      </c>
+      <c r="N25">
+        <v>38.75382</v>
+      </c>
+      <c r="O25">
+        <v>0.5565220613038737</v>
+      </c>
+      <c r="P25">
+        <v>0.5565220613038738</v>
+      </c>
+      <c r="Q25">
+        <v>0.8744067466400002</v>
+      </c>
+      <c r="R25">
+        <v>7.869660719760001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001053153304167322</v>
+      </c>
+      <c r="T25">
+        <v>0.0001053153304167322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.203068</v>
+      </c>
+      <c r="I26">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J26">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5509396666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.652819</v>
+      </c>
+      <c r="O26">
+        <v>0.02373521466637888</v>
+      </c>
+      <c r="P26">
+        <v>0.02373521466637889</v>
+      </c>
+      <c r="Q26">
+        <v>0.03729273874355556</v>
+      </c>
+      <c r="R26">
+        <v>0.335634648692</v>
+      </c>
+      <c r="S26">
+        <v>4.491613448791705E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.491613448791705E-06</v>
       </c>
     </row>
   </sheetData>
